--- a/data/outputs/management_altmetric/89.xlsx
+++ b/data/outputs/management_altmetric/89.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE155"/>
+  <dimension ref="A1:CF155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,11 @@
       <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>citeulike</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
         </is>
       </c>
     </row>
@@ -1003,6 +1008,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1256,6 +1264,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1513,6 +1524,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1766,6 +1780,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2011,6 +2028,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2260,6 +2280,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2517,6 +2540,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2772,6 +2798,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3025,6 +3054,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3272,6 +3304,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3517,6 +3552,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3766,6 +3804,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4013,6 +4054,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,6 +4300,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4511,6 +4558,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4760,6 +4810,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5009,6 +5062,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5256,6 +5312,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5501,6 +5560,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5763,6 +5825,9 @@
       </c>
       <c r="CE21" t="n">
         <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>6.75</v>
       </c>
     </row>
     <row r="22">
@@ -6005,6 +6070,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6246,6 +6314,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6501,6 +6572,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6744,6 +6818,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6989,6 +7066,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7246,6 +7326,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7495,6 +7578,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7746,6 +7832,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7989,6 +8078,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8232,6 +8324,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8481,6 +8576,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8734,6 +8832,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8989,6 +9090,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9232,6 +9336,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9489,6 +9596,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9744,6 +9854,9 @@
       <c r="CE37" t="n">
         <v>1</v>
       </c>
+      <c r="CF37" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9999,6 +10112,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10230,6 +10346,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10471,6 +10590,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10718,6 +10840,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10957,6 +11082,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11214,6 +11342,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11459,6 +11590,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11708,6 +11842,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11963,6 +12100,9 @@
         <v>0</v>
       </c>
       <c r="CE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12202,6 +12342,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12456,6 +12599,9 @@
       </c>
       <c r="CE48" t="n">
         <v>0</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="49">
@@ -12696,6 +12842,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12953,6 +13102,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13198,6 +13350,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13449,6 +13604,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13700,6 +13858,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13947,6 +14108,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14190,6 +14354,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14437,6 +14604,9 @@
         <v>0</v>
       </c>
       <c r="CE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14680,6 +14850,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14922,6 +15095,9 @@
       </c>
       <c r="CE58" t="n">
         <v>0</v>
+      </c>
+      <c r="CF58" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="59">
@@ -15166,6 +15342,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15412,6 +15591,9 @@
       </c>
       <c r="CE60" t="n">
         <v>0</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="61">
@@ -15654,6 +15836,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15901,6 +16086,9 @@
         <v>0</v>
       </c>
       <c r="CE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16144,6 +16332,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16399,6 +16590,9 @@
         <v>0</v>
       </c>
       <c r="CE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16642,6 +16836,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16883,6 +17080,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17125,6 +17325,9 @@
       </c>
       <c r="CE67" t="n">
         <v>0</v>
+      </c>
+      <c r="CF67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -17343,6 +17546,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17594,6 +17800,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17845,6 +18054,9 @@
         <v>0</v>
       </c>
       <c r="CE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18090,6 +18302,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18353,6 +18568,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18604,6 +18822,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18851,6 +19072,9 @@
         <v>0</v>
       </c>
       <c r="CE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19092,6 +19316,9 @@
         <v>0</v>
       </c>
       <c r="CE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19313,6 +19540,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19552,6 +19782,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19795,6 +20028,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20038,6 +20274,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20289,6 +20528,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>44.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20544,6 +20786,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20797,6 +21042,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21046,6 +21294,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21295,6 +21546,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21550,6 +21804,9 @@
         <v>0</v>
       </c>
       <c r="CE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21797,6 +22054,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22052,6 +22312,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22301,6 +22564,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22546,6 +22812,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22799,6 +23068,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23056,6 +23328,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23313,6 +23588,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23562,6 +23840,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23819,6 +24100,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24068,6 +24352,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24315,6 +24602,9 @@
         <v>0</v>
       </c>
       <c r="CE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24546,6 +24836,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24803,6 +25096,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25060,6 +25356,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25305,6 +25604,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25562,6 +25864,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25817,6 +26122,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26070,6 +26378,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26319,6 +26630,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26568,6 +26882,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26815,6 +27132,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27072,6 +27392,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27329,6 +27652,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27580,6 +27906,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27833,6 +28162,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28082,6 +28414,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28337,6 +28672,9 @@
         <v>0</v>
       </c>
       <c r="CE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28580,6 +28918,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28831,6 +29172,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29082,6 +29426,9 @@
         <v>0</v>
       </c>
       <c r="CE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29323,6 +29670,9 @@
         <v>0</v>
       </c>
       <c r="CE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29562,6 +29912,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29805,6 +30158,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30056,6 +30412,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30306,6 +30665,9 @@
       </c>
       <c r="CE120" t="n">
         <v>0</v>
+      </c>
+      <c r="CF120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -30548,6 +30910,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30795,6 +31160,9 @@
         <v>0</v>
       </c>
       <c r="CE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31038,6 +31406,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31273,6 +31644,9 @@
         <v>0</v>
       </c>
       <c r="CE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31512,6 +31886,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31763,6 +32140,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -32008,6 +32388,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32251,6 +32634,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32502,6 +32888,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32751,6 +33140,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -33000,6 +33392,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33249,6 +33644,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -33499,6 +33897,9 @@
       </c>
       <c r="CE133" t="n">
         <v>0</v>
+      </c>
+      <c r="CF133" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="134">
@@ -33742,6 +34143,9 @@
       </c>
       <c r="CE134" t="n">
         <v>0</v>
+      </c>
+      <c r="CF134" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="135">
@@ -33972,6 +34376,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34219,6 +34626,9 @@
         <v>0</v>
       </c>
       <c r="CE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34468,6 +34878,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34709,6 +35122,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -34952,6 +35368,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -35195,6 +35614,9 @@
         <v>0</v>
       </c>
       <c r="CE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35436,6 +35858,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35677,6 +36102,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -35918,6 +36346,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -36169,6 +36600,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -36412,6 +36846,9 @@
         <v>0</v>
       </c>
       <c r="CE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36657,6 +37094,9 @@
       <c r="CE146" t="n">
         <v>0</v>
       </c>
+      <c r="CF146" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -36900,6 +37340,9 @@
       <c r="CE147" t="n">
         <v>0</v>
       </c>
+      <c r="CF147" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -37151,6 +37594,9 @@
       <c r="CE148" t="n">
         <v>0</v>
       </c>
+      <c r="CF148" t="n">
+        <v>15.85</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -37394,6 +37840,9 @@
         <v>0</v>
       </c>
       <c r="CE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37639,6 +38088,9 @@
       <c r="CE150" t="n">
         <v>0</v>
       </c>
+      <c r="CF150" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -37880,6 +38332,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -38130,6 +38585,9 @@
       </c>
       <c r="CE152" t="n">
         <v>0</v>
+      </c>
+      <c r="CF152" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="153">
@@ -38372,6 +38830,9 @@
       <c r="CE153" t="n">
         <v>0</v>
       </c>
+      <c r="CF153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -38613,6 +39074,9 @@
       <c r="CE154" t="n">
         <v>0</v>
       </c>
+      <c r="CF154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -38862,6 +39326,9 @@
       <c r="CE155" t="n">
         <v>0</v>
       </c>
+      <c r="CF155" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
